--- a/data/trans_dic/P24_6_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P24_6_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,15 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con dolores musculares o de articulaciones con bastante o mucha frecuencia</t>
+          <t>Población con dolores musculares o de articulaciones con bastante o mucha frecuencia (tasa de respuesta: 99,93%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +550,25 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +595,57 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +664,9 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +681,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>24,52%</t>
+          <t>17,93%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>18,26%</t>
+          <t>17,43%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>36,61%</t>
+          <t>40,04%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>24,7%</t>
+          <t>28,36%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>41,86%</t>
+          <t>29,91%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>48,23%</t>
+          <t>44,49%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>53,23%</t>
+          <t>48,04%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>48,59%</t>
+          <t>65,98%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>33,97%</t>
+          <t>55,44%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>34,29%</t>
+          <t>57,17%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>46,05%</t>
+          <t>32,08%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>38,3%</t>
+          <t>33,5%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>53,6%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>42,37%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>44,81%</t>
         </is>
       </c>
     </row>
@@ -724,62 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>15,82; 34,66</t>
+          <t>7,8; 32,22</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>11,0; 27,66</t>
+          <t>7,43; 33,49</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>25,7; 47,47</t>
+          <t>20,6; 58,64</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>14,73; 33,87</t>
+          <t>11,75; 45,53</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>32,73; 51,21</t>
+          <t>11,68; 49,87</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>38,79; 58,08</t>
+          <t>32,16; 58,66</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>39,17; 63,32</t>
+          <t>33,75; 61,71</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>30,04; 60,51</t>
+          <t>52,03; 78,41</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>27,04; 40,94</t>
+          <t>39,91; 68,63</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>26,79; 41,32</t>
+          <t>42,11; 74,3</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>37,24; 54,05</t>
+          <t>22,65; 42,03</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>27,87; 46,2</t>
+          <t>21,34; 44,61</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>36,99; 65,26</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>28,27; 55,02</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>26,97; 59,14</t>
         </is>
       </c>
     </row>
@@ -796,62 +851,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>14,9%</t>
+          <t>13,55%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>16,19%</t>
+          <t>17,02%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>15,94%</t>
+          <t>17,93%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>20,4%</t>
+          <t>28,69%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>33,16%</t>
+          <t>31,74%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>32,61%</t>
+          <t>36,6%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>33,2%</t>
+          <t>35,63%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>36,78%</t>
+          <t>32,49%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>24,46%</t>
+          <t>38,75%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>24,7%</t>
+          <t>43,45%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>24,55%</t>
+          <t>25,45%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>28,29%</t>
+          <t>26,69%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>25,24%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>33,58%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>37,47%</t>
         </is>
       </c>
     </row>
@@ -864,62 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10,65; 19,59</t>
+          <t>8,67; 20,17</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>11,65; 21,26</t>
+          <t>11,58; 23,94</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11,47; 21,56</t>
+          <t>12,58; 25,07</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>15,54; 27,24</t>
+          <t>21,24; 41,59</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>28,06; 38,91</t>
+          <t>23,34; 45,1</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>27,75; 38,11</t>
+          <t>29,41; 43,62</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>27,9; 39,32</t>
+          <t>28,81; 42,83</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>31,48; 42,96</t>
+          <t>25,39; 39,94</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>21,04; 28,38</t>
+          <t>32,04; 46,19</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>21,38; 29,05</t>
+          <t>35,24; 50,6</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>20,93; 28,55</t>
+          <t>21,12; 30,62</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>24,44; 33,08</t>
+          <t>21,95; 31,55</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>20,51; 29,84</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>28,11; 39,97</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>31,81; 44,5</t>
         </is>
       </c>
     </row>
@@ -936,62 +1021,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>15,88%</t>
+          <t>21,24%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>16,05%</t>
+          <t>16,21%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>16,57%</t>
+          <t>22,36%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>21,66%</t>
+          <t>18,97%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>27,84%</t>
+          <t>22,36%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>26,31%</t>
+          <t>24,89%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>24,84%</t>
+          <t>24,08%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>27,23%</t>
+          <t>21,9%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>22,32%</t>
+          <t>26,27%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>21,58%</t>
+          <t>29,91%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>20,99%</t>
+          <t>23,28%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>24,58%</t>
+          <t>20,64%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>22,11%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>22,93%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>26,37%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1104,84 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>11,26; 22,08</t>
+          <t>13,73; 28,41</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>11,46; 21,59</t>
+          <t>10,26; 23,37</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>11,65; 22,81</t>
+          <t>15,03; 30,39</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>16,29; 28,43</t>
+          <t>12,79; 26,52</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>22,95; 34,33</t>
+          <t>15,83; 30,21</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>20,89; 32,44</t>
+          <t>18,56; 32,39</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>19,65; 30,6</t>
+          <t>18,05; 31,1</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>21,86; 33,32</t>
+          <t>16,51; 28,74</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>18,39; 26,73</t>
+          <t>20,07; 33,24</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>17,79; 25,52</t>
+          <t>22,63; 37,9</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>17,43; 24,72</t>
+          <t>18,8; 29,14</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>20,71; 28,96</t>
+          <t>16,11; 26,13</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>17,82; 27,0</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>18,66; 27,87</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>21,39; 32,21</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1191,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>16,87%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>16,5%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>19,31%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>21,47%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>32,85%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>33,23%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>34,05%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>36,08%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>25,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>25,34%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>27,01%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>28,94%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1274,1725 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>14,14; 20,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>13,49; 20,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>16,03; 23,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>17,9; 25,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>29,11; 36,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>29,37; 37,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>30,19; 38,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>31,28; 39,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>23,1; 28,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>22,73; 28,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>24,42; 29,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>26,13; 31,64</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>17,06%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>16,78%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>22,62%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>25,24%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>28,27%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>32,82%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>32,56%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>32,77%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>36,27%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>41,22%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>25,49%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>25,26%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>27,93%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>30,89%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>34,92%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>13,21; 21,58</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>12,5; 21,02</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>17,78; 27,81</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>20,16; 32,92</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>22,1; 36,99</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>28,52; 37,44</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>27,89; 37,23</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>28,33; 37,4</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>31,48; 41,32</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>36,25; 48,16</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>22,21; 28,71</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>21,88; 28,26</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>24,45; 31,58</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>27,12; 34,7</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>30,63; 39,58</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="M1:Q1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con dolores musculares o de articulaciones con bastante o mucha frecuencia (tasa de respuesta: 99,93%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>18525</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>22465</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>42227</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>32371</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>53131</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>52414</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>68445</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>76204</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>67854</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>122329</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>70940</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>90910</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>118431</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>100225</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>175460</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>8061; 33303</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>9576; 43167</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>21725; 61845</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>13407; 51964</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>20741; 88595</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>37886; 69099</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>48081; 87928</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>60101; 90561</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>48852; 84002</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>90100; 158976</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>50090; 92953</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>57920; 121051</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>81725; 144207</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>66871; 130137</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>105634; 231595</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>83.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>115.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>127.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>49603</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>73096</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>67459</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>113883</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>164004</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>142969</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>165484</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>123252</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>145406</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>214930</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>192572</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>238580</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>190711</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>259289</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>378934</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>31723; 73811</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>49721; 102830</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>47335; 94316</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>84334; 165117</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>120598; 233059</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>114904; 170400</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>133838; 198946</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>96323; 151493</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>120218; 173300</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>174336; 250299</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>159784; 231662</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>196267; 282048</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>155006; 225497</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>217090; 308675</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>321707; 450047</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>60725</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>53958</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>63140</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>52230</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>78984</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>89524</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>103167</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>75093</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>86018</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>119512</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>150249</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>157125</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>138233</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>138248</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>198495</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>39255; 81222</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>34157; 77795</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>42437; 85801</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>35222; 73038</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>55941; 106709</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>66759; 116469</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>77338; 133233</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>56614; 98539</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>65712; 108830</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>90435; 151409</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>121335; 188132</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>122673; 198927</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>111420; 168801</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>112511; 168026</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>161015; 242462</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>130.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>132.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>134.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>149.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>158.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>186.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>189.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>210.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>231.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>248.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>128853</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>149519</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>172827</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>198484</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>296118</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>284907</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>337097</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>274548</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>299277</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>456771</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>413760</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>486616</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>447375</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>497762</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>752890</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>99777; 162991</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>111375; 187329</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>135883; 212528</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>158539; 258880</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>231496; 387504</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>247578; 324994</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>288762; 385418</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>237305; 313306</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>259719; 340886</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>401704; 533663</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>360549; 465999</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>421606; 544493</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>391639; 505800</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>437005; 559267</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>660240; 853342</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
